--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,46 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>شامبو سباركل مشكل 30جنية كميه أكبر - 40 شريط</t>
-  </si>
-  <si>
-    <t>عصير بست كوكتيل كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>عصير بست تفاح كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
-    <t>شامبو وبسلم سباركل للشعر العادي - 350 مل</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 5 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>شويبس يوسفى - 950 مل</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
+    <t>ارز الساعة - 1 كجم</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 250 جم</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة طويل بالالوفيرا - 8 فوطة</t>
+  </si>
+  <si>
+    <t>صلصة دهشة ظرف - 35 جم</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
   </si>
   <si>
     <t>ميرندا برتقال - 1.47 لتر</t>
   </si>
   <si>
-    <t>شاى الكبوس ناعم - 30 جم</t>
-  </si>
-  <si>
-    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
+    <t>صابون لوكس بشرة نضرة - 115 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -434,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,291 +447,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>361</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>189</v>
+        <v>343.75</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1622</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1776</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>267</v>
+        <v>1080</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1777</v>
+        <v>4372</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>266</v>
+        <v>27.75</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2912</v>
+        <v>4372</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>75.25</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2912</v>
+        <v>5086</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>602</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6034</v>
+        <v>5086</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1092</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6034</v>
+        <v>5490</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>45.5</v>
+        <v>269.25</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6097</v>
+        <v>8939</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>853.5</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>6097</v>
+        <v>11689</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>426.75</v>
+        <v>96.5</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>8649</v>
+        <v>11689</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>143.25</v>
+        <v>772</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>8915</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>181.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>8939</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>181.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>9082</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>9082</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1800</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>21077</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>720</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>21077</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ارز الساعة - 1 كجم</t>
-  </si>
-  <si>
-    <t>حلاوة الرشيدى الميزان - 250 جم</t>
-  </si>
-  <si>
-    <t>اولويز ماكسى سميكة طويل بالالوفيرا - 8 فوطة</t>
-  </si>
-  <si>
-    <t>صلصة دهشة ظرف - 35 جم</t>
-  </si>
-  <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>صابون لوكس بشرة نضرة - 115 جم</t>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>بقسماط الضحى ناعم - 300 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>فرصة دقيق - 1 كجم</t>
+  </si>
+  <si>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+  </si>
+  <si>
+    <t>برغل الضحى ناعم - 500 جم</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,189 +459,274 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>343.75</v>
+        <v>204.75</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>186</v>
+        <v>944</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1080</v>
+        <v>2688</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4372</v>
+        <v>944</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>27.75</v>
+        <v>1344</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4372</v>
+        <v>944</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>444</v>
+        <v>672</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5086</v>
+        <v>944</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5086</v>
+        <v>2778</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5490</v>
+        <v>6957</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>269.25</v>
+        <v>18.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8939</v>
+        <v>6957</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11689</v>
+        <v>9796</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>96.5</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11689</v>
+        <v>9796</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>772</v>
+        <v>1488</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10641</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>191.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11039</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>54.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>11409</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1085</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11681</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -40,37 +40,34 @@
     <t>دقيق حبوبة - 1 كجم</t>
   </si>
   <si>
-    <t>سفن اب كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>تونة دولفين قطع بارد - 185 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>بقسماط الضحى ناعم - 300 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>فرصة دقيق - 1 كجم</t>
-  </si>
-  <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
-  </si>
-  <si>
-    <t>برغل الضحى ناعم - 500 جم</t>
-  </si>
-  <si>
-    <t>شويبس اناناس بلاستيك - 250 مل</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو مغطى بالشوكلاتة 2 قطع - 31.3 جم</t>
+  </si>
+  <si>
+    <t>عصير تانج مانجو بودر برطمان - 450 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>204.75</v>
+        <v>203.5</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -476,16 +473,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>295</v>
+        <v>53.75</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -493,33 +490,33 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>944</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2688</v>
+        <v>2580</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>944</v>
+        <v>1703</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1344</v>
+        <v>191.25</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -527,16 +524,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>944</v>
+        <v>8688</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>672</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -544,16 +541,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>944</v>
+        <v>8688</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>1215</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -561,16 +558,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2778</v>
+        <v>8915</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>204.5</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -578,16 +575,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6957</v>
+        <v>10093</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>18.5</v>
+        <v>35.25</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -595,16 +592,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6957</v>
+        <v>10093</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>370</v>
+        <v>2115</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -612,16 +609,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9796</v>
+        <v>11581</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>497.5</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -629,16 +626,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9796</v>
+        <v>11793</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1488</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -646,16 +643,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10641</v>
+        <v>12058</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>191.75</v>
+        <v>1680</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11039</v>
+        <v>12058</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -680,16 +677,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11409</v>
+        <v>23335</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>54.25</v>
+        <v>79.5</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -697,35 +694,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>11409</v>
+        <v>23335</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1085</v>
+        <v>636</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>11681</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,49 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>دقيق حبوبة - 1 كجم</t>
-  </si>
-  <si>
     <t>شاى ليبتون ناعم  - 250 جم</t>
   </si>
   <si>
-    <t>مناديل فاميليا تواليت 2 طبقة - 2 رول</t>
-  </si>
-  <si>
-    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>شاى الكبوس - 100 جرام</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت اوريو مغطى بالشوكلاتة 2 قطع - 31.3 جم</t>
-  </si>
-  <si>
-    <t>عصير تانج مانجو بودر برطمان - 450 جم</t>
+    <t>طحينة الرشيدى الميزان - 255 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>رويال أعشاب كركديه - 20 فتلة</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>المطبخ مكرونة هلالية- 400 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
+  </si>
+  <si>
+    <t>جل باهى اسود - 40 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,19 +468,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>203.5</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,21 +488,21 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>53.75</v>
+        <v>2640</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>88</v>
+        <v>965</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -499,100 +511,100 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2580</v>
+        <v>1236</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1703</v>
+        <v>965</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>191.25</v>
+        <v>51.5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8688</v>
+        <v>1124</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>164.5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>8688</v>
+        <v>4175</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1215</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8915</v>
+        <v>4175</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>204.5</v>
+        <v>1296</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>10093</v>
+        <v>6158</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>35.25</v>
+        <v>112.5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10093</v>
+        <v>8926</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -601,112 +613,163 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2115</v>
+        <v>492.5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11581</v>
+        <v>9082</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>497.5</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11793</v>
+        <v>9082</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>295</v>
+        <v>1800</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>12058</v>
+        <v>10927</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1680</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>12058</v>
+        <v>11089</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>105</v>
+        <v>172.5</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>23335</v>
+        <v>12871</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>79.5</v>
+        <v>66.5</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>23335</v>
+        <v>12923</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>636</v>
+        <v>807</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>12925</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>479.75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>24245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>297</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>24245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>24.75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,43 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>طحينة الرشيدى الميزان - 255 جم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>رويال أعشاب كركديه - 20 فتلة</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم - 30 جم</t>
-  </si>
-  <si>
-    <t>المطبخ مكرونة هلالية- 400 جم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
-  </si>
-  <si>
-    <t>جل باهى اسود - 40 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
+    <t>عصير جهينة تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة لسان عصفور - 280 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
+  </si>
+  <si>
+    <t>شعراوي لبان نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -437,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,308 +453,223 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>347.75</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>88</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>2640</v>
+        <v>28.25</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>965</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>1236</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>965</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>51.5</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1124</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>164.5</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>4175</v>
+        <v>5872</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>4175</v>
+        <v>11404</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1296</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6158</v>
+        <v>21316</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>112.5</v>
+        <v>702</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8926</v>
+        <v>21316</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>492.5</v>
+        <v>58.5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9082</v>
+        <v>21687</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>25.75</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9082</v>
+        <v>21687</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1800</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10927</v>
+        <v>24566</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <v>96.75</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11089</v>
+        <v>24567</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>172.5</v>
+        <v>91.25</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>12871</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>66.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>12923</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>807</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>12925</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>479.75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>24245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>297</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>24245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>24.75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل سمايل سحب 550 منديل</t>
-  </si>
-  <si>
-    <t>فلامنكو بطعم السوداني الشوفان 10 جنية</t>
+    <t>عصير جهينة مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>سردين دولفين بارد - 125 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة فرن - 280 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +456,257 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12212</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>257.5</v>
+        <v>232.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>13278</v>
+        <v>1409</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>35.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>92.25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>1787.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1409</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>536.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1430</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2055</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>62.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2055</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1494</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>335.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>5868</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>136.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8915</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>186.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>486.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>606</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21687</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>330</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21687</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>27.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_701_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة مانجو - 235 مل</t>
-  </si>
-  <si>
-    <t>سردين دولفين بارد - 125 جم</t>
-  </si>
-  <si>
-    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
+    <t>حبوبة خل- 900 مل</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>فانتا تفاح احمر ستار - 320 مل</t>
   </si>
   <si>
     <t>مكرونة خطيرة فرن - 280 جم</t>
   </si>
   <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 750 جم</t>
+  </si>
+  <si>
+    <t>كونري كورندبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,33 +456,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>232.25</v>
+        <v>163.75</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1409</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>35.75</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -490,223 +490,189 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1409</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1787.5</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1409</v>
+        <v>1243</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>536.25</v>
+        <v>309.5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1409</v>
+        <v>3671</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1430</v>
+        <v>325.5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2055</v>
+        <v>5868</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>62.25</v>
+        <v>138.25</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2055</v>
+        <v>11526</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1494</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2326</v>
+        <v>11526</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
-        <v>335.25</v>
+        <v>19.75</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5868</v>
+        <v>12146</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>136.75</v>
+        <v>402.75</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8915</v>
+        <v>22554</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>186.5</v>
+        <v>77.5</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>8926</v>
+        <v>22554</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>486.5</v>
+        <v>1860</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>11510</v>
+        <v>24708</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>50.5</v>
+        <v>918</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11510</v>
+        <v>24708</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>606</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21687</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>330</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21687</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>27.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
